--- a/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
+++ b/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="82" t="n">
-        <v>48736069.15</v>
+        <v>155899956.58</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="132" t="n"/>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="84" t="n">
-        <v>88888</v>
+        <v>12</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="87" t="n">
-        <v>48647181.15</v>
+        <v>155899944.58</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -2682,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="84" t="n">
-        <v>18913435.15</v>
+        <v>154430351</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="84" t="n">
-        <v>29733746</v>
+        <v>1469593.58</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="82" t="n">
-        <v>44466.98</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -2858,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="84" t="n">
-        <v>44466.98</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>

--- a/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
+++ b/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7365" windowWidth="14910" xWindow="480" yWindow="75"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7365" windowWidth="14910" xWindow="480" yWindow="75"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:J1048576"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -3898,9 +3898,7 @@
         <v>125</v>
       </c>
       <c r="H70" s="25" t="n"/>
-      <c r="I70" s="12" t="n">
-        <v>461392.98</v>
-      </c>
+      <c r="I70" s="12" t="n"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="17" t="n">
@@ -6155,8 +6153,8 @@
   </sheetPr>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -7583,9 +7581,7 @@
         <v>125</v>
       </c>
       <c r="H70" s="25" t="n"/>
-      <c r="I70" s="12" t="n">
-        <v>461392.98</v>
-      </c>
+      <c r="I70" s="12" t="n"/>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="17" t="n">
@@ -9839,7 +9835,7 @@
   </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
+++ b/webapp/Files/generate/G25II/G25II_2019_06_30.xlsx
@@ -2471,7 +2471,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="A6" sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -2598,7 +2598,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="82" t="n">
-        <v>7132604.049999999</v>
+        <v>175837586</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="132" t="n"/>
@@ -2616,7 +2616,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="84" t="n">
-        <v>1000.85</v>
+        <v>999</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="87" t="n">
-        <v>7131603.199999999</v>
+        <v>175836587</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -2682,7 +2682,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="84" t="n">
-        <v>7130801.6</v>
+        <v>173007173</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -2706,7 +2706,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="84" t="n">
-        <v>801.6</v>
+        <v>2829414</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="82" t="n">
-        <v>1254</v>
+        <v>188.19</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -2858,7 +2858,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="84" t="n">
-        <v>1254</v>
+        <v>188.19</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>
@@ -3898,7 +3898,9 @@
         <v>125</v>
       </c>
       <c r="H70" s="25" t="n"/>
-      <c r="I70" s="12" t="n"/>
+      <c r="I70" s="12" t="n">
+        <v>461392.98</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="17" t="n">
@@ -6154,7 +6156,7 @@
   <dimension ref="A1:I190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5" outlineLevelCol="0"/>
@@ -6281,7 +6283,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="82" t="n">
-        <v>13332378.2</v>
+        <v>15227804</v>
       </c>
       <c r="D8" s="21" t="n"/>
       <c r="E8" s="132" t="n"/>
@@ -6299,7 +6301,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="84" t="n">
-        <v>775</v>
+        <v>999</v>
       </c>
       <c r="D9" s="23" t="n">
         <v>1</v>
@@ -6345,7 +6347,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="87" t="n">
-        <v>13331603.2</v>
+        <v>15226805</v>
       </c>
       <c r="D11" s="21" t="n"/>
       <c r="E11" s="135" t="n"/>
@@ -6365,7 +6367,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="84" t="n">
-        <v>13330801.6</v>
+        <v>12397391</v>
       </c>
       <c r="D12" s="23" t="n">
         <v>1</v>
@@ -6389,7 +6391,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="84" t="n">
-        <v>801.6</v>
+        <v>2829414</v>
       </c>
       <c r="D13" s="23" t="n">
         <v>1</v>
@@ -6501,7 +6503,7 @@
         <v>37</v>
       </c>
       <c r="C18" s="82" t="n">
-        <v>1254</v>
+        <v>188.19</v>
       </c>
       <c r="D18" s="21" t="n"/>
       <c r="E18" s="135" t="n"/>
@@ -6541,7 +6543,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="84" t="n">
-        <v>1254</v>
+        <v>188.19</v>
       </c>
       <c r="D20" s="23" t="n">
         <v>0.85</v>
@@ -7581,7 +7583,9 @@
         <v>125</v>
       </c>
       <c r="H70" s="25" t="n"/>
-      <c r="I70" s="12" t="n"/>
+      <c r="I70" s="12" t="n">
+        <v>461392.98</v>
+      </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="17" t="n">
